--- a/data/FFAncestors-EXCEL.xlsx
+++ b/data/FFAncestors-EXCEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\codeloujs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afredrickson\Documents\Dev\gaballison\first-families\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227DEFD-D120-4FEF-8FBC-7F7A5B41A59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D219819A-72B5-48F8-8DE0-DDEFD19D68D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,48 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="662">
   <si>
-    <t>Ancestor ID</t>
-  </si>
-  <si>
-    <t>PRIMARY County</t>
-  </si>
-  <si>
-    <t>Secondary County</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Maiden Name</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Suffix</t>
-  </si>
-  <si>
-    <t>Year Settled</t>
-  </si>
-  <si>
-    <t>Spouse</t>
-  </si>
-  <si>
-    <t>FIRST ADDED</t>
-  </si>
-  <si>
-    <t>Total Applicants Using This Ancestor</t>
-  </si>
-  <si>
     <t>anc00001</t>
   </si>
   <si>
@@ -2006,6 +1964,48 @@
   </si>
   <si>
     <t>Batman</t>
+  </si>
+  <si>
+    <t>ancestor_id</t>
+  </si>
+  <si>
+    <t>primary_county</t>
+  </si>
+  <si>
+    <t>secondary_county</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>maiden_name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>year_settled</t>
+  </si>
+  <si>
+    <t>spouse</t>
+  </si>
+  <si>
+    <t>first_added</t>
+  </si>
+  <si>
+    <t>total_applicants</t>
   </si>
 </sst>
 </file>
@@ -2848,51 +2848,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>649</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>650</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>651</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>652</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>653</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>654</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>655</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>656</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>657</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>658</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>659</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>660</v>
       </c>
       <c r="N1">
         <v>2013</v>
@@ -2916,24 +2916,24 @@
         <v>2019</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>1815</v>
@@ -2966,18 +2966,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>2013</v>
@@ -3007,27 +3007,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>1826</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M4">
         <v>2013</v>
@@ -3057,18 +3057,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
       </c>
       <c r="M5">
         <v>2013</v>
@@ -3098,21 +3098,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>2013</v>
@@ -3142,21 +3142,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M7">
         <v>2013</v>
@@ -3186,18 +3186,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M8">
         <v>2013</v>
@@ -3227,21 +3227,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M9">
         <v>2013</v>
@@ -3271,18 +3271,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K10">
         <v>1819</v>
@@ -3315,18 +3315,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>1817</v>
@@ -3359,24 +3359,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>1830</v>
@@ -3409,24 +3409,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>1836</v>
@@ -3459,18 +3459,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>1820</v>
@@ -3503,18 +3503,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M15">
         <v>2013</v>
@@ -3544,18 +3544,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M16">
         <v>2013</v>
@@ -3585,21 +3585,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
         <v>50</v>
       </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M17">
         <v>2013</v>
@@ -3629,24 +3629,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K18">
         <v>1805</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="M18">
         <v>2013</v>
@@ -3676,18 +3676,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M19">
         <v>2013</v>
@@ -3717,21 +3717,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M20">
         <v>2013</v>
@@ -3761,18 +3761,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M21">
         <v>2013</v>
@@ -3802,18 +3802,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K22">
         <v>1839</v>
@@ -3846,18 +3846,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K23">
         <v>1839</v>
@@ -3890,18 +3890,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M24">
         <v>2013</v>
@@ -3931,18 +3931,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M25">
         <v>2013</v>
@@ -3972,18 +3972,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M26">
         <v>2013</v>
@@ -4013,18 +4013,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="M27">
         <v>2013</v>
@@ -4054,21 +4054,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M28">
         <v>2013</v>
@@ -4098,18 +4098,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M29">
         <v>2013</v>
@@ -4139,21 +4139,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="M30">
         <v>2013</v>
@@ -4183,18 +4183,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M31">
         <v>2013</v>
@@ -4224,18 +4224,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M32">
         <v>2013</v>
@@ -4265,18 +4265,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="M33">
         <v>2013</v>
@@ -4306,18 +4306,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M34">
         <v>2013</v>
@@ -4347,21 +4347,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M35">
         <v>2013</v>
@@ -4391,18 +4391,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M36">
         <v>2015</v>
@@ -4432,21 +4432,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I37" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M37">
         <v>2015</v>
@@ -4476,18 +4476,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I38" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M38">
         <v>2015</v>
@@ -4517,18 +4517,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="M39">
         <v>2014</v>
@@ -4558,18 +4558,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M40">
         <v>2014</v>
@@ -4599,21 +4599,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" t="s">
         <v>109</v>
-      </c>
-      <c r="E41" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41" t="s">
-        <v>123</v>
       </c>
       <c r="M41">
         <v>2014</v>
@@ -4643,18 +4643,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M42">
         <v>2015</v>
@@ -4684,18 +4684,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M43">
         <v>2015</v>
@@ -4725,24 +4725,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H44" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M44">
         <v>2015</v>
@@ -4772,18 +4772,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I45" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="M45">
         <v>2015</v>
@@ -4813,24 +4813,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H46" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I46" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="M46">
         <v>2014</v>
@@ -4860,21 +4860,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I47" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M47">
         <v>2015</v>
@@ -4904,21 +4904,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H48" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I48" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M48">
         <v>2014</v>
@@ -4948,18 +4948,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M49">
         <v>2015</v>
@@ -4989,21 +4989,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M50">
         <v>2014</v>
@@ -5033,18 +5033,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M51">
         <v>2014</v>
@@ -5074,18 +5074,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I52" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="M52">
         <v>2015</v>
@@ -5115,18 +5115,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I53" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M53">
         <v>2015</v>
@@ -5156,18 +5156,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I54" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="M54">
         <v>2015</v>
@@ -5197,18 +5197,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I55" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="M55">
         <v>2014</v>
@@ -5238,24 +5238,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H56" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I56" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="M56">
         <v>2014</v>
@@ -5285,18 +5285,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="M57">
         <v>2015</v>
@@ -5326,18 +5326,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I58" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="M58">
         <v>2015</v>
@@ -5367,21 +5367,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I59" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="M59">
         <v>2014</v>
@@ -5411,21 +5411,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="M60">
         <v>2014</v>
@@ -5455,18 +5455,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I61" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M61">
         <v>2014</v>
@@ -5496,18 +5496,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M62">
         <v>2014</v>
@@ -5537,24 +5537,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G63" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H63" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="I63" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M63">
         <v>2014</v>
@@ -5584,21 +5584,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H64" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I64" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M64">
         <v>2014</v>
@@ -5628,18 +5628,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M65">
         <v>2015</v>
@@ -5669,21 +5669,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M66">
         <v>2015</v>
@@ -5713,21 +5713,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I67" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M67">
         <v>2014</v>
@@ -5757,18 +5757,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M68">
         <v>2014</v>
@@ -5798,18 +5798,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I69" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M69">
         <v>2014</v>
@@ -5839,18 +5839,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I70" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M70">
         <v>2014</v>
@@ -5880,18 +5880,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I71" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M71">
         <v>2015</v>
@@ -5921,21 +5921,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="H72" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="I72" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="M72">
         <v>2015</v>
@@ -5965,21 +5965,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G73" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I73" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="M73">
         <v>2015</v>
@@ -6009,21 +6009,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G74" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M74">
         <v>2015</v>
@@ -6053,24 +6053,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G75" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H75" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="I75" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M75">
         <v>2015</v>
@@ -6100,21 +6100,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I76" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M76">
         <v>2015</v>
@@ -6144,21 +6144,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I77" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M77">
         <v>2015</v>
@@ -6188,18 +6188,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I78" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M78">
         <v>2015</v>
@@ -6229,18 +6229,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I79" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="M79">
         <v>2015</v>
@@ -6270,21 +6270,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I80" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="M80">
         <v>2015</v>
@@ -6314,21 +6314,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H81" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="I81" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M81">
         <v>2014</v>
@@ -6358,18 +6358,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I82" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M82">
         <v>2014</v>
@@ -6399,21 +6399,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I83" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M83">
         <v>2015</v>
@@ -6443,21 +6443,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I84" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="J84" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M84">
         <v>2015</v>
@@ -6487,21 +6487,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H85" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I85" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="M85">
         <v>2015</v>
@@ -6531,18 +6531,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I86" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="M86">
         <v>2015</v>
@@ -6572,18 +6572,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I87" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M87">
         <v>2015</v>
@@ -6613,18 +6613,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M88">
         <v>2015</v>
@@ -6654,21 +6654,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H89" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="I89" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M89">
         <v>2015</v>
@@ -6698,21 +6698,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H90" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="I90" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M90">
         <v>2015</v>
@@ -6742,21 +6742,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H91" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I91" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M91">
         <v>2015</v>
@@ -6786,18 +6786,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M92">
         <v>2015</v>
@@ -6827,21 +6827,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I93" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="M93">
         <v>2015</v>
@@ -6871,21 +6871,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G94" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="I94" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="M94">
         <v>2016</v>
@@ -6915,18 +6915,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="M95">
         <v>2016</v>
@@ -6956,18 +6956,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I96" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="M96">
         <v>2016</v>
@@ -6997,21 +6997,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="H97" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="I97" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="M97">
         <v>2016</v>
@@ -7041,18 +7041,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="I98" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M98">
         <v>2016</v>
@@ -7082,21 +7082,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H99" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="I99" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M99">
         <v>2016</v>
@@ -7126,21 +7126,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="H100" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="I100" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M100">
         <v>2016</v>
@@ -7170,21 +7170,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M101">
         <v>2016</v>
@@ -7214,21 +7214,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="H102" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="I102" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M102">
         <v>2016</v>
@@ -7258,18 +7258,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="I103" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="M103">
         <v>2016</v>
@@ -7299,18 +7299,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I104" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="M104">
         <v>2016</v>
@@ -7340,18 +7340,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="I105" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="M105">
         <v>2016</v>
@@ -7381,24 +7381,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G106" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="I106" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="J106" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M106">
         <v>2016</v>
@@ -7428,18 +7428,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I107" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="M107">
         <v>2016</v>
@@ -7469,21 +7469,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H108" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="I108" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="M108">
         <v>2016</v>
@@ -7513,21 +7513,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H109" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="I109" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M109">
         <v>2016</v>
@@ -7557,18 +7557,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I110" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M110">
         <v>2016</v>
@@ -7598,18 +7598,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="I111" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="M111">
         <v>2016</v>
@@ -7639,18 +7639,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="I112" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M112">
         <v>2016</v>
@@ -7680,21 +7680,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="H113" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="I113" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M113">
         <v>2016</v>
@@ -7724,18 +7724,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I114" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="M114">
         <v>2016</v>
@@ -7765,21 +7765,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H115" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="I115" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="M115">
         <v>2016</v>
@@ -7809,21 +7809,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I116" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J116" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M116">
         <v>2016</v>
@@ -7853,21 +7853,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I117" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M117">
         <v>2016</v>
@@ -7897,21 +7897,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H118" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="I118" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M118">
         <v>2016</v>
@@ -7941,24 +7941,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G119" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H119" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="I119" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M119">
         <v>2016</v>
@@ -7988,21 +7988,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G120" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="I120" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="M120">
         <v>2016</v>
@@ -8032,21 +8032,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="I121" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M121">
         <v>2016</v>
@@ -8076,21 +8076,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G122" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I122" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M122">
         <v>2016</v>
@@ -8120,18 +8120,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="I123" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="M123">
         <v>2016</v>
@@ -8161,18 +8161,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B124" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I124" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="M124">
         <v>2016</v>
@@ -8202,21 +8202,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E125" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="H125" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I125" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="M125">
         <v>2016</v>
@@ -8246,18 +8246,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B126" t="s">
+        <v>95</v>
+      </c>
+      <c r="E126" t="s">
+        <v>298</v>
+      </c>
+      <c r="I126" t="s">
         <v>109</v>
-      </c>
-      <c r="E126" t="s">
-        <v>312</v>
-      </c>
-      <c r="I126" t="s">
-        <v>123</v>
       </c>
       <c r="M126">
         <v>2016</v>
@@ -8287,21 +8287,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B127" t="s">
+        <v>95</v>
+      </c>
+      <c r="E127" t="s">
+        <v>148</v>
+      </c>
+      <c r="H127" t="s">
+        <v>300</v>
+      </c>
+      <c r="I127" t="s">
         <v>109</v>
-      </c>
-      <c r="E127" t="s">
-        <v>162</v>
-      </c>
-      <c r="H127" t="s">
-        <v>314</v>
-      </c>
-      <c r="I127" t="s">
-        <v>123</v>
       </c>
       <c r="M127">
         <v>2016</v>
@@ -8331,18 +8331,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s">
+        <v>95</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
         <v>109</v>
-      </c>
-      <c r="E128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I128" t="s">
-        <v>123</v>
       </c>
       <c r="M128">
         <v>2016</v>
@@ -8372,21 +8372,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B129" t="s">
+        <v>95</v>
+      </c>
+      <c r="E129" t="s">
+        <v>121</v>
+      </c>
+      <c r="H129" t="s">
+        <v>303</v>
+      </c>
+      <c r="I129" t="s">
         <v>109</v>
-      </c>
-      <c r="E129" t="s">
-        <v>135</v>
-      </c>
-      <c r="H129" t="s">
-        <v>317</v>
-      </c>
-      <c r="I129" t="s">
-        <v>123</v>
       </c>
       <c r="M129">
         <v>2016</v>
@@ -8416,18 +8416,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="M130">
         <v>2016</v>
@@ -8457,21 +8457,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E131" t="s">
+        <v>307</v>
+      </c>
+      <c r="H131" t="s">
         <v>109</v>
       </c>
-      <c r="E131" t="s">
-        <v>321</v>
-      </c>
-      <c r="H131" t="s">
-        <v>123</v>
-      </c>
       <c r="I131" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="M131">
         <v>2016</v>
@@ -8501,21 +8501,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E132" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G132" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="I132" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="M132">
         <v>2016</v>
@@ -8545,24 +8545,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B133" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E133" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F133" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H133" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="I133" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="M133">
         <v>2016</v>
@@ -8592,21 +8592,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E134" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H134" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I134" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M134">
         <v>2016</v>
@@ -8636,18 +8636,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B135" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E135" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="I135" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M135">
         <v>2016</v>
@@ -8677,24 +8677,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F136" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="H136" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="I136" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M136">
         <v>2016</v>
@@ -8724,21 +8724,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E137" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G137" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="I137" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M137">
         <v>2016</v>
@@ -8768,21 +8768,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E138" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="I138" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M138">
         <v>2016</v>
@@ -8812,21 +8812,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E139" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H139" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="I139" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M139">
         <v>2016</v>
@@ -8856,18 +8856,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E140" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I140" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M140">
         <v>2016</v>
@@ -8897,18 +8897,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B141" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E141" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I141" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="M141">
         <v>2016</v>
@@ -8938,18 +8938,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I142" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="M142">
         <v>2016</v>
@@ -8979,24 +8979,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B143" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E143" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H143" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="I143" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="M143">
         <v>2016</v>
@@ -9026,24 +9026,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B144" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E144" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G144" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H144" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="I144" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M144">
         <v>2016</v>
@@ -9073,18 +9073,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E145" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="I145" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M145">
         <v>2016</v>
@@ -9114,18 +9114,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B146" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E146" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I146" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M146">
         <v>2016</v>
@@ -9155,21 +9155,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B147" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E147" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H147" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="I147" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M147">
         <v>2016</v>
@@ -9199,18 +9199,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B148" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E148" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I148" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M148">
         <v>2016</v>
@@ -9240,21 +9240,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B149" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E149" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H149" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="I149" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M149">
         <v>2016</v>
@@ -9284,18 +9284,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B150" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E150" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="I150" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="M150">
         <v>2016</v>
@@ -9325,21 +9325,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B151" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F151" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I151" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="M151">
         <v>2016</v>
@@ -9369,18 +9369,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B152" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E152" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I152" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="M152">
         <v>2016</v>
@@ -9410,18 +9410,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B153" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E153" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="I153" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="M153">
         <v>2016</v>
@@ -9451,18 +9451,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B154" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E154" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I154" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="M154">
         <v>2016</v>
@@ -9492,21 +9492,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B155" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E155" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H155" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="I155" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="M155">
         <v>2016</v>
@@ -9536,18 +9536,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B156" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E156" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="I156" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M156">
         <v>2016</v>
@@ -9577,21 +9577,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B157" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E157" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="H157" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="I157" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M157">
         <v>2016</v>
@@ -9621,21 +9621,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B158" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I158" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="M158">
         <v>2016</v>
@@ -9665,18 +9665,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B159" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E159" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I159" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="M159">
         <v>2016</v>
@@ -9706,21 +9706,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B160" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E160" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I160" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="M160">
         <v>2016</v>
@@ -9750,18 +9750,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B161" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="I161" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="M161">
         <v>2016</v>
@@ -9791,21 +9791,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B162" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H162" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="I162" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M162">
         <v>2016</v>
@@ -9835,18 +9835,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B163" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I163" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="M163">
         <v>2016</v>
@@ -9876,18 +9876,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B164" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="I164" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="M164">
         <v>2016</v>
@@ -9917,18 +9917,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B165" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I165" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="M165">
         <v>2016</v>
@@ -9958,21 +9958,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B166" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H166" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="I166" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="M166">
         <v>2016</v>
@@ -10002,18 +10002,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I167" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="M167">
         <v>2016</v>
@@ -10043,18 +10043,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B168" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E168" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I168" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="M168">
         <v>2016</v>
@@ -10084,21 +10084,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B169" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E169" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G169" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I169" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M169">
         <v>2016</v>
@@ -10128,21 +10128,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B170" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H170" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="I170" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M170">
         <v>2016</v>
@@ -10172,18 +10172,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B171" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E171" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="I171" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="M171">
         <v>2016</v>
@@ -10213,21 +10213,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B172" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H172" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="I172" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="M172">
         <v>2016</v>
@@ -10257,21 +10257,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G173" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I173" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M173">
         <v>2016</v>
@@ -10301,18 +10301,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B174" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E174" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="I174" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="M174">
         <v>2017</v>
@@ -10342,18 +10342,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B175" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="I175" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="M175">
         <v>2017</v>
@@ -10383,18 +10383,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I176" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="M176">
         <v>2017</v>
@@ -10424,21 +10424,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B177" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E177" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H177" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="I177" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M177">
         <v>2017</v>
@@ -10468,18 +10468,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B178" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E178" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I178" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M178">
         <v>2017</v>
@@ -10509,24 +10509,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B179" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E179" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G179" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H179" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I179" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M179">
         <v>2017</v>
@@ -10556,21 +10556,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B180" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="G180" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="I180" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="M180">
         <v>2017</v>
@@ -10600,21 +10600,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G181" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="I181" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="M181">
         <v>2017</v>
@@ -10644,18 +10644,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B182" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I182" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="M182">
         <v>2017</v>
@@ -10685,18 +10685,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B183" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E183" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="I183" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M183">
         <v>2017</v>
@@ -10726,21 +10726,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B184" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E184" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I184" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="J184" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M184">
         <v>2017</v>
@@ -10770,18 +10770,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B185" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E185" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I185" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="M185">
         <v>2017</v>
@@ -10811,21 +10811,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B186" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E186" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="H186" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="I186" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="M186">
         <v>2017</v>
@@ -10855,18 +10855,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B187" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E187" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="I187" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="M187">
         <v>2017</v>
@@ -10896,21 +10896,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B188" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E188" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H188" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="I188" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="M188">
         <v>2017</v>
@@ -10940,18 +10940,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I189" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="M189">
         <v>2017</v>
@@ -10981,21 +10981,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H190" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="I190" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="M190">
         <v>2017</v>
@@ -11025,21 +11025,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B191" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E191" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I191" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="J191" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M191">
         <v>2017</v>
@@ -11069,18 +11069,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B192" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E192" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I192" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="M192">
         <v>2017</v>
@@ -11110,18 +11110,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B193" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E193" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I193" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="M193">
         <v>2017</v>
@@ -11151,18 +11151,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I194" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="M194">
         <v>2017</v>
@@ -11192,21 +11192,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H195" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="I195" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="M195">
         <v>2017</v>
@@ -11236,18 +11236,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B196" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E196" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="I196" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="M196">
         <v>2017</v>
@@ -11277,18 +11277,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B197" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E197" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I197" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="M197">
         <v>2017</v>
@@ -11318,18 +11318,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B198" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E198" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I198" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="M198">
         <v>2017</v>
@@ -11359,21 +11359,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B199" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E199" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G199" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I199" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="M199">
         <v>2017</v>
@@ -11403,21 +11403,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B200" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E200" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G200" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="I200" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="M200">
         <v>2017</v>
@@ -11447,18 +11447,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B201" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E201" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="I201" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="M201">
         <v>2017</v>
@@ -11488,24 +11488,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B202" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E202" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F202" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H202" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="I202" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M202">
         <v>2017</v>
@@ -11535,18 +11535,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B203" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E203" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I203" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M203">
         <v>2017</v>
@@ -11576,21 +11576,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B204" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E204" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H204" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="I204" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M204">
         <v>2017</v>
@@ -11620,18 +11620,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B205" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E205" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I205" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M205">
         <v>2017</v>
@@ -11661,18 +11661,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E206" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I206" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="M206">
         <v>2017</v>
@@ -11702,21 +11702,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B207" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E207" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H207" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="I207" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="M207">
         <v>2017</v>
@@ -11746,18 +11746,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B208" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E208" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M208">
         <v>2017</v>
@@ -11787,21 +11787,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B209" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H209" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="I209" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M209">
         <v>2017</v>
@@ -11831,18 +11831,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B210" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E210" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I210" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="M210">
         <v>2017</v>
@@ -11872,21 +11872,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B211" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E211" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="I211" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="M211">
         <v>2017</v>
@@ -11916,18 +11916,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B212" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E212" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I212" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="M212">
         <v>2017</v>
@@ -11957,18 +11957,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="B213" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E213" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="I213" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="M213">
         <v>2017</v>
@@ -11998,18 +11998,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B214" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E214" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="I214" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="M214">
         <v>2018</v>
@@ -12039,18 +12039,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B215" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E215" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="I215" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="M215">
         <v>2018</v>
@@ -12080,18 +12080,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B216" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="I216" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="M216">
         <v>2018</v>
@@ -12121,18 +12121,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B217" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E217" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="I217" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M217">
         <v>2018</v>
@@ -12162,21 +12162,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B218" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E218" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G218" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="I218" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M218">
         <v>2018</v>
@@ -12206,21 +12206,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B219" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E219" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="H219" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="I219" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M219">
         <v>2018</v>
@@ -12250,18 +12250,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B220" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E220" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I220" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M220">
         <v>2018</v>
@@ -12291,24 +12291,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B221" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E221" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G221" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H221" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="I221" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M221">
         <v>2018</v>
@@ -12338,24 +12338,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B222" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E222" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H222" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="I222" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="L222" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="M222">
         <v>2018</v>
@@ -12385,21 +12385,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B223" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E223" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I223" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="L223" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M223">
         <v>2018</v>
@@ -12429,18 +12429,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B224" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E224" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I224" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M224">
         <v>2018</v>
@@ -12470,18 +12470,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B225" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E225" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I225" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="M225">
         <v>2018</v>
@@ -12511,18 +12511,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B226" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E226" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I226" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="M226">
         <v>2018</v>
@@ -12552,21 +12552,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B227" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E227" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G227" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="I227" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="M227">
         <v>2018</v>
@@ -12596,21 +12596,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B228" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H228" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="I228" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="M228">
         <v>2018</v>
@@ -12640,18 +12640,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E229" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I229" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="M229">
         <v>2018</v>
@@ -12681,18 +12681,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I230" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M230">
         <v>2018</v>
@@ -12722,21 +12722,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="H231" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="I231" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="M231">
         <v>2018</v>
@@ -12766,21 +12766,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I232" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="J232" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M232">
         <v>2018</v>
@@ -12810,18 +12810,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="I233" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="M233">
         <v>2018</v>
@@ -12851,18 +12851,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E234" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I234" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="M234">
         <v>2018</v>
@@ -12892,21 +12892,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="B235" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E235" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="G235" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I235" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="M235">
         <v>2018</v>
@@ -12936,18 +12936,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B236" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E236" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="I236" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M236">
         <v>2018</v>
@@ -12977,18 +12977,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E237" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="I237" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M237">
         <v>2018</v>
@@ -13018,18 +13018,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B238" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E238" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I238" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="M238">
         <v>2018</v>
@@ -13059,18 +13059,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B239" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E239" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I239" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="M239">
         <v>2018</v>
@@ -13100,18 +13100,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B240" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E240" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I240" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="M240">
         <v>2018</v>
@@ -13141,18 +13141,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B241" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E241" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="I241" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="M241">
         <v>2018</v>
@@ -13182,18 +13182,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B242" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E242" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I242" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="M242">
         <v>2018</v>
@@ -13223,21 +13223,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B243" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E243" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G243" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="I243" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="M243">
         <v>2018</v>
@@ -13267,18 +13267,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B244" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E244" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I244" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="M244">
         <v>2018</v>
@@ -13308,24 +13308,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="B245" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E245" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G245" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H245" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="I245" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="M245">
         <v>2018</v>
@@ -13355,18 +13355,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B246" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E246" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I246" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="M246">
         <v>2018</v>
@@ -13396,21 +13396,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="B247" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E247" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="I247" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="J247" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="M247">
         <v>2018</v>
@@ -13440,21 +13440,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="I248" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="M248">
         <v>2013</v>
@@ -13484,21 +13484,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B249" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E249" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H249" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="I249" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="M249">
         <v>2019</v>
@@ -13510,18 +13510,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="B250" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E250" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="I250" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="M250">
         <v>2019</v>
@@ -13533,18 +13533,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B251" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E251" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I251" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="M251">
         <v>2019</v>
@@ -13556,18 +13556,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B252" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E252" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I252" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="M252">
         <v>2019</v>
@@ -13579,18 +13579,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B253" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E253" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I253" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="M253">
         <v>2019</v>
@@ -13602,21 +13602,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B254" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E254" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G254" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="I254" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="M254">
         <v>2019</v>
@@ -13628,18 +13628,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B255" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E255" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="I255" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="M255">
         <v>2019</v>
@@ -13651,21 +13651,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G256" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I256" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M256">
         <v>2019</v>
@@ -13677,21 +13677,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G257" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="I257" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M257">
         <v>2019</v>
@@ -13703,21 +13703,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G258" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I258" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M258">
         <v>2019</v>
@@ -13729,18 +13729,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B259" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E259" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I259" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="M259">
         <v>2019</v>
@@ -13752,18 +13752,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B260" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E260" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I260" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="M260">
         <v>2019</v>
@@ -13775,18 +13775,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B261" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E261" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="I261" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="M261">
         <v>2019</v>
@@ -13798,18 +13798,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B262" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E262" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I262" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="M262">
         <v>2019</v>
@@ -13821,18 +13821,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B263" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E263" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I263" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="M263">
         <v>2019</v>
@@ -13844,18 +13844,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B264" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E264" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I264" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="M264">
         <v>2019</v>
@@ -13867,18 +13867,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B265" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E265" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I265" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="M265">
         <v>2019</v>
@@ -13890,18 +13890,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B266" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E266" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="I266" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="M266">
         <v>2019</v>
@@ -13913,21 +13913,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B267" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E267" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="I267" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="J267" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M267">
         <v>2019</v>
@@ -13939,18 +13939,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B268" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E268" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I268" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="M268">
         <v>2019</v>
@@ -13962,18 +13962,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B269" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E269" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="I269" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="M269">
         <v>2019</v>
@@ -13985,18 +13985,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B270" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E270" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I270" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="M270">
         <v>2019</v>
@@ -14008,21 +14008,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B271" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E271" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G271" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="I271" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="M271">
         <v>2019</v>
@@ -14034,18 +14034,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B272" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E272" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I272" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="M272">
         <v>2019</v>
@@ -14057,18 +14057,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B273" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E273" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I273" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="M273">
         <v>2019</v>
@@ -14080,21 +14080,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B274" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E274" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G274" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="I274" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="M274">
         <v>2019</v>
@@ -14106,18 +14106,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B275" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E275" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I275" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="M275">
         <v>2019</v>
@@ -14129,21 +14129,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B276" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E276" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H276" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="I276" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="M276">
         <v>2019</v>
@@ -14155,21 +14155,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B277" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E277" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I277" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="M277">
         <v>2019</v>
@@ -14181,21 +14181,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="B278" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E278" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H278" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I278" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="M278">
         <v>2019</v>
@@ -14207,18 +14207,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B279" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E279" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="I279" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M279">
         <v>2019</v>
@@ -14230,18 +14230,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="I280" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="M280">
         <v>2019</v>
@@ -14253,18 +14253,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B281" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E281" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="I281" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M281">
         <v>2019</v>
@@ -14276,21 +14276,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B282" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E282" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="H282" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="I282" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="M282">
         <v>2019</v>
@@ -14302,18 +14302,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B283" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E283" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="I283" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="M283">
         <v>2019</v>
@@ -14325,24 +14325,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="B284" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E284" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G284" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I284" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="J284" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M284">
         <v>2019</v>
@@ -14354,21 +14354,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="B285" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E285" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G285" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="I285" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M285">
         <v>2019</v>
@@ -14380,18 +14380,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="B286" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E286" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I286" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="M286">
         <v>2019</v>
@@ -14403,18 +14403,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E287" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I287" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="M287">
         <v>2019</v>
@@ -14426,21 +14426,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="B288" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E288" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="I288" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L288" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="M288">
         <v>2019</v>
@@ -14452,27 +14452,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B289" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E289" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="G289" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H289" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I289" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L289" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="M289">
         <v>2019</v>
@@ -14484,24 +14484,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="B290" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E290" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G290" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I290" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L290" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="M290">
         <v>2019</v>
@@ -14513,27 +14513,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="B291" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E291" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F291" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="H291" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="I291" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L291" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="M291">
         <v>2019</v>
@@ -14545,18 +14545,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="B292" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E292" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I292" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="M292">
         <v>2019</v>
@@ -14568,18 +14568,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="B293" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E293" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="I293" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="M293">
         <v>2019</v>
@@ -14591,21 +14591,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B294" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E294" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G294" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="I294" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="M294">
         <v>2019</v>
